--- a/synonim.xlsx
+++ b/synonim.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KULIAH\semester 7\STKI\kuliah_STKI\Tugas 3\synonim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="200">
   <si>
     <t>dosen</t>
   </si>
@@ -35,138 +30,45 @@
     <t>Guru</t>
   </si>
   <si>
-    <t>Pelatih</t>
-  </si>
-  <si>
     <t>Pembimbing</t>
   </si>
   <si>
-    <t>Penatar</t>
-  </si>
-  <si>
     <t>Pendidik</t>
   </si>
   <si>
     <t>Pengajar</t>
   </si>
   <si>
-    <t>Pensyarah</t>
-  </si>
-  <si>
-    <t>Tutor</t>
-  </si>
-  <si>
-    <t>widyaiswara</t>
-  </si>
-  <si>
     <t>lulus</t>
   </si>
   <si>
-    <t>Amblas</t>
-  </si>
-  <si>
     <t>Berhasil</t>
   </si>
   <si>
-    <t>Celus</t>
-  </si>
-  <si>
-    <t>Hilang</t>
-  </si>
-  <si>
-    <t>Jadi</t>
-  </si>
-  <si>
     <t>Lolos</t>
   </si>
   <si>
-    <t>Lucut</t>
-  </si>
-  <si>
-    <t>Menang</t>
-  </si>
-  <si>
-    <t>Menguap</t>
-  </si>
-  <si>
-    <t>Molos</t>
-  </si>
-  <si>
     <t>Sukses</t>
   </si>
   <si>
-    <t>tercapai</t>
-  </si>
-  <si>
-    <t>terkabul</t>
-  </si>
-  <si>
     <t>mengajar</t>
   </si>
   <si>
     <t>Melatih</t>
   </si>
   <si>
-    <t>Membentuk</t>
-  </si>
-  <si>
     <t>Membimbing</t>
   </si>
   <si>
-    <t>Memimpin</t>
-  </si>
-  <si>
-    <t>Menangani</t>
-  </si>
-  <si>
-    <t>Menasihati</t>
-  </si>
-  <si>
-    <t>Menatar</t>
-  </si>
-  <si>
     <t>Mendidik</t>
   </si>
   <si>
     <t>Mengarahkan</t>
   </si>
   <si>
-    <t>Mengasuh</t>
-  </si>
-  <si>
-    <t>Mengemong</t>
-  </si>
-  <si>
-    <t>Menggembleg</t>
-  </si>
-  <si>
-    <t>Menggondok</t>
-  </si>
-  <si>
-    <t>Menggurui</t>
-  </si>
-  <si>
-    <t>mengomeli</t>
-  </si>
-  <si>
     <t>menguliahi</t>
   </si>
   <si>
-    <t>menunjuki</t>
-  </si>
-  <si>
-    <t>menuntun</t>
-  </si>
-  <si>
-    <t>menyuluh</t>
-  </si>
-  <si>
-    <t>membiasakan</t>
-  </si>
-  <si>
-    <t>membudayakan</t>
-  </si>
-  <si>
     <t>institut</t>
   </si>
   <si>
@@ -233,75 +135,12 @@
     <t>ajek</t>
   </si>
   <si>
-    <t>konsisten</t>
-  </si>
-  <si>
     <t>konstan</t>
   </si>
   <si>
-    <t>kukuh</t>
-  </si>
-  <si>
-    <t>malar</t>
-  </si>
-  <si>
-    <t>mantap</t>
-  </si>
-  <si>
     <t>permanen</t>
   </si>
   <si>
-    <t>regular</t>
-  </si>
-  <si>
-    <t>stabil</t>
-  </si>
-  <si>
-    <t>teguh</t>
-  </si>
-  <si>
-    <t>tunak</t>
-  </si>
-  <si>
-    <t>mati</t>
-  </si>
-  <si>
-    <t>pasti</t>
-  </si>
-  <si>
-    <t>tentu</t>
-  </si>
-  <si>
-    <t>selalu</t>
-  </si>
-  <si>
-    <t>selama-lamanya</t>
-  </si>
-  <si>
-    <t>senantiasa</t>
-  </si>
-  <si>
-    <t>sepanjang masa</t>
-  </si>
-  <si>
-    <t>terus</t>
-  </si>
-  <si>
-    <t>abadi</t>
-  </si>
-  <si>
-    <t>kekal</t>
-  </si>
-  <si>
-    <t>langgeng</t>
-  </si>
-  <si>
-    <t>lestari</t>
-  </si>
-  <si>
-    <t>baka</t>
-  </si>
-  <si>
     <t>honorer</t>
   </si>
   <si>
@@ -347,126 +186,24 @@
     <t>dokter</t>
   </si>
   <si>
-    <t>dukun</t>
-  </si>
-  <si>
-    <t>mantri</t>
-  </si>
-  <si>
-    <t>medikus</t>
-  </si>
-  <si>
-    <t>sinse</t>
-  </si>
-  <si>
-    <t>tabib</t>
-  </si>
-  <si>
     <t>perempuan</t>
   </si>
   <si>
-    <t>awewe</t>
-  </si>
-  <si>
-    <t>betina</t>
-  </si>
-  <si>
-    <t>bini</t>
-  </si>
-  <si>
     <t>cewek</t>
   </si>
   <si>
-    <t>dara</t>
-  </si>
-  <si>
-    <t>dayang</t>
-  </si>
-  <si>
-    <t>gadis</t>
-  </si>
-  <si>
-    <t>hawa</t>
-  </si>
-  <si>
-    <t>ibu</t>
-  </si>
-  <si>
-    <t>induk beras</t>
-  </si>
-  <si>
-    <t>istri</t>
-  </si>
-  <si>
-    <t>nisa</t>
-  </si>
-  <si>
-    <t>nyonya</t>
-  </si>
-  <si>
-    <t>orang belakang</t>
-  </si>
-  <si>
-    <t>pedusi</t>
-  </si>
-  <si>
-    <t>puan</t>
-  </si>
-  <si>
     <t>wanita</t>
   </si>
   <si>
     <t>lahir</t>
   </si>
   <si>
-    <t>jebrol</t>
-  </si>
-  <si>
     <t>ada</t>
   </si>
   <si>
-    <t>berdiri</t>
-  </si>
-  <si>
-    <t>hadir</t>
-  </si>
-  <si>
-    <t>jadi</t>
-  </si>
-  <si>
-    <t>keluar</t>
-  </si>
-  <si>
-    <t>muncul</t>
-  </si>
-  <si>
-    <t>timbul</t>
-  </si>
-  <si>
-    <t>terbentuk</t>
-  </si>
-  <si>
-    <t>tumbuh</t>
-  </si>
-  <si>
-    <t>jasmani</t>
-  </si>
-  <si>
-    <t>keduniaan</t>
-  </si>
-  <si>
     <t>peneliti</t>
   </si>
   <si>
-    <t>penelaah</t>
-  </si>
-  <si>
-    <t>peneroka</t>
-  </si>
-  <si>
-    <t>pengkaji</t>
-  </si>
-  <si>
     <t>penyelidik</t>
   </si>
   <si>
@@ -494,9 +231,6 @@
     <t>pria</t>
   </si>
   <si>
-    <t>jantan</t>
-  </si>
-  <si>
     <t>gelar</t>
   </si>
   <si>
@@ -509,147 +243,18 @@
     <t>titel</t>
   </si>
   <si>
-    <t>melebarkan</t>
-  </si>
-  <si>
-    <t>membabarkan</t>
-  </si>
-  <si>
-    <t>membeberkan</t>
-  </si>
-  <si>
-    <t>membentangkan</t>
-  </si>
-  <si>
-    <t>mementangkan</t>
-  </si>
-  <si>
-    <t>mengembangkan</t>
-  </si>
-  <si>
-    <t>menghamparkan</t>
-  </si>
-  <si>
-    <t>menjereng</t>
-  </si>
-  <si>
-    <t>memperagakan</t>
-  </si>
-  <si>
-    <t>melaksanakan</t>
-  </si>
-  <si>
-    <t>melangsungkan</t>
-  </si>
-  <si>
-    <t>membuat</t>
-  </si>
-  <si>
-    <t>menyelenggarakan</t>
-  </si>
-  <si>
     <t>ganjil</t>
   </si>
   <si>
-    <t>gangsal</t>
-  </si>
-  <si>
     <t>gasal</t>
   </si>
   <si>
-    <t>witir</t>
-  </si>
-  <si>
-    <t>abnormal</t>
-  </si>
-  <si>
-    <t>ajaib</t>
-  </si>
-  <si>
-    <t>aneh</t>
-  </si>
-  <si>
-    <t>asing</t>
-  </si>
-  <si>
-    <t>cemplang</t>
-  </si>
-  <si>
-    <t>eksentrik</t>
-  </si>
-  <si>
-    <t>eksotis</t>
-  </si>
-  <si>
-    <t>gaib</t>
-  </si>
-  <si>
-    <t>garib</t>
-  </si>
-  <si>
-    <t>istimewa</t>
-  </si>
-  <si>
-    <t>luar biasa</t>
-  </si>
-  <si>
-    <t>pelik</t>
-  </si>
-  <si>
-    <t>jarang</t>
-  </si>
-  <si>
-    <t>langka</t>
-  </si>
-  <si>
-    <t>kaku</t>
-  </si>
-  <si>
-    <t>kekok</t>
-  </si>
-  <si>
-    <t>nadir</t>
-  </si>
-  <si>
-    <t>unik</t>
-  </si>
-  <si>
-    <t>edan</t>
-  </si>
-  <si>
-    <t>gelo</t>
-  </si>
-  <si>
-    <t>gemblung</t>
-  </si>
-  <si>
     <t>genap</t>
   </si>
   <si>
     <t>bulat</t>
   </si>
   <si>
-    <t>jangkap</t>
-  </si>
-  <si>
-    <t>komplet</t>
-  </si>
-  <si>
-    <t>lengkap</t>
-  </si>
-  <si>
-    <t>penuh</t>
-  </si>
-  <si>
-    <t>sempurna</t>
-  </si>
-  <si>
-    <t>tamam</t>
-  </si>
-  <si>
-    <t>utuh</t>
-  </si>
-  <si>
     <t>pendidikan</t>
   </si>
   <si>
@@ -665,51 +270,9 @@
     <t>kuliah</t>
   </si>
   <si>
-    <t>kursus</t>
-  </si>
-  <si>
     <t>pelajaran</t>
   </si>
   <si>
-    <t>pelatihan</t>
-  </si>
-  <si>
-    <t>pembelajaran</t>
-  </si>
-  <si>
-    <t>pemberadaban</t>
-  </si>
-  <si>
-    <t>pembibitan</t>
-  </si>
-  <si>
-    <t>pemeliharaan</t>
-  </si>
-  <si>
-    <t>pencerahan</t>
-  </si>
-  <si>
-    <t>pengajaran</t>
-  </si>
-  <si>
-    <t>pengasuhan</t>
-  </si>
-  <si>
-    <t>penggemblengan</t>
-  </si>
-  <si>
-    <t>penggodokan</t>
-  </si>
-  <si>
-    <t>sekolah</t>
-  </si>
-  <si>
-    <t>tarbiah</t>
-  </si>
-  <si>
-    <t>tuntunan</t>
-  </si>
-  <si>
     <t>universitas</t>
   </si>
   <si>
@@ -722,21 +285,12 @@
     <t>beban</t>
   </si>
   <si>
-    <t>darma</t>
-  </si>
-  <si>
-    <t>fungsi</t>
-  </si>
-  <si>
     <t>kewajiban</t>
   </si>
   <si>
     <t>pekerjaan</t>
   </si>
   <si>
-    <t>peran</t>
-  </si>
-  <si>
     <t>instansi</t>
   </si>
   <si>
@@ -761,9 +315,6 @@
     <t>lembaga</t>
   </si>
   <si>
-    <t>maktab</t>
-  </si>
-  <si>
     <t>tanpa</t>
   </si>
   <si>
@@ -779,157 +330,295 @@
     <t>berperan</t>
   </si>
   <si>
-    <t>bersungguh-sungguh</t>
-  </si>
-  <si>
-    <t>getol</t>
-  </si>
-  <si>
-    <t>giat</t>
-  </si>
-  <si>
-    <t>rajin</t>
-  </si>
-  <si>
-    <t>ramai</t>
-  </si>
-  <si>
-    <t>rancak</t>
-  </si>
-  <si>
-    <t>ringan tangan</t>
-  </si>
-  <si>
-    <t>sibuk</t>
-  </si>
-  <si>
-    <t>tangkas</t>
-  </si>
-  <si>
-    <t>antusias</t>
-  </si>
-  <si>
-    <t>berkobar-kobar</t>
-  </si>
-  <si>
-    <t>bergairah</t>
-  </si>
-  <si>
-    <t>bergelora</t>
-  </si>
-  <si>
-    <t>bersemangat</t>
-  </si>
-  <si>
-    <t>dinamis</t>
-  </si>
-  <si>
-    <t>energik</t>
-  </si>
-  <si>
-    <t>membara</t>
-  </si>
-  <si>
     <t>bekerja</t>
   </si>
   <si>
-    <t>berdenyut</t>
-  </si>
-  <si>
     <t>berfungsi</t>
   </si>
   <si>
-    <t>bergerak</t>
-  </si>
-  <si>
-    <t>berjalan</t>
-  </si>
-  <si>
-    <t>beroperasi</t>
-  </si>
-  <si>
     <t>lulusan</t>
   </si>
   <si>
     <t>alumni</t>
   </si>
   <si>
-    <t>jebolan</t>
-  </si>
-  <si>
-    <t>keluaran</t>
-  </si>
-  <si>
-    <t>lepasan</t>
-  </si>
-  <si>
     <t>tamatan</t>
   </si>
   <si>
     <t>penting</t>
   </si>
   <si>
-    <t>bena</t>
-  </si>
-  <si>
-    <t>berarti</t>
-  </si>
-  <si>
-    <t>berguna</t>
-  </si>
-  <si>
     <t>berharga</t>
   </si>
   <si>
-    <t>berkuasa</t>
-  </si>
-  <si>
-    <t>bermakna</t>
-  </si>
-  <si>
-    <t>bermanfaat</t>
-  </si>
-  <si>
-    <t>bernilai</t>
-  </si>
-  <si>
-    <t>berpengaruh</t>
-  </si>
-  <si>
-    <t>esensial</t>
-  </si>
-  <si>
-    <t>krusial</t>
-  </si>
-  <si>
-    <t>mendesak</t>
-  </si>
-  <si>
-    <t>pokok</t>
-  </si>
-  <si>
-    <t>primer</t>
-  </si>
-  <si>
-    <t>prinsipil</t>
-  </si>
-  <si>
-    <t>relevan</t>
-  </si>
-  <si>
-    <t>serius</t>
-  </si>
-  <si>
-    <t>signifikan</t>
-  </si>
-  <si>
-    <t>strategis</t>
-  </si>
-  <si>
-    <t>substansial</t>
-  </si>
-  <si>
-    <t>urgen</t>
+    <t>bimbing</t>
+  </si>
+  <si>
+    <t>ajar</t>
+  </si>
+  <si>
+    <t>didik</t>
+  </si>
+  <si>
+    <t>ajaran</t>
+  </si>
+  <si>
+    <t>belajar</t>
+  </si>
+  <si>
+    <t>berlatih</t>
+  </si>
+  <si>
+    <t>menimba</t>
+  </si>
+  <si>
+    <t>menuntut ilmu</t>
+  </si>
+  <si>
+    <t>rpl</t>
+  </si>
+  <si>
+    <t>rekayasa perangkat lunak</t>
+  </si>
+  <si>
+    <t>cerdas visual</t>
+  </si>
+  <si>
+    <t>poltek</t>
+  </si>
+  <si>
+    <t>politeknik</t>
+  </si>
+  <si>
+    <t>upmb</t>
+  </si>
+  <si>
+    <t>unit pusat matakuliah bersama</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>bukan</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>mahir</t>
+  </si>
+  <si>
+    <t>bagus</t>
+  </si>
+  <si>
+    <t>kompeten</t>
+  </si>
+  <si>
+    <t>berpengalaman</t>
+  </si>
+  <si>
+    <t>jadwal</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>acara</t>
+  </si>
+  <si>
+    <t>daftar</t>
+  </si>
+  <si>
+    <t>rencana</t>
+  </si>
+  <si>
+    <t>susunan</t>
+  </si>
+  <si>
+    <t>urutan</t>
+  </si>
+  <si>
+    <t>periset</t>
+  </si>
+  <si>
+    <t>teliti</t>
+  </si>
+  <si>
+    <t>akurat</t>
+  </si>
+  <si>
+    <t>cermat</t>
+  </si>
+  <si>
+    <t>efektif</t>
+  </si>
+  <si>
+    <t>utama</t>
+  </si>
+  <si>
+    <t>ijin</t>
+  </si>
+  <si>
+    <t>izin</t>
+  </si>
+  <si>
+    <t>persetujuan</t>
+  </si>
+  <si>
+    <t>organisasi</t>
+  </si>
+  <si>
+    <t>daerah</t>
+  </si>
+  <si>
+    <t>wilayah</t>
+  </si>
+  <si>
+    <t>kepala</t>
+  </si>
+  <si>
+    <t>pemimpin</t>
+  </si>
+  <si>
+    <t>ketua</t>
+  </si>
+  <si>
+    <t>jurusan</t>
+  </si>
+  <si>
+    <t>bagian</t>
+  </si>
+  <si>
+    <t>departemen</t>
+  </si>
+  <si>
+    <t>devisi</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>teknik informatika</t>
+  </si>
+  <si>
+    <t>ITB</t>
+  </si>
+  <si>
+    <t>Institut Teknologi Bandung</t>
+  </si>
+  <si>
+    <t>Institut Teknologi di Bandung</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>Institut Teknologi Surabaya</t>
+  </si>
+  <si>
+    <t>Institut Teknologi di Surabaya</t>
+  </si>
+  <si>
+    <t>Institut Teknologi Sepuluh Nopember</t>
+  </si>
+  <si>
+    <t>Institut Teknologi Sepuluh November</t>
+  </si>
+  <si>
+    <t>bukan PNS</t>
+  </si>
+  <si>
+    <t>Sarjana</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Universitas Indonesia</t>
+  </si>
+  <si>
+    <t>Universitas di Jakarta</t>
+  </si>
+  <si>
+    <t>UGM</t>
+  </si>
+  <si>
+    <t>Universitas Gajah Mada</t>
+  </si>
+  <si>
+    <t>Universitas di Jogjakarta</t>
+  </si>
+  <si>
+    <t>Universitas di Yogyakarta</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>tidak tercatat</t>
+  </si>
+  <si>
+    <t>tidak tersedia</t>
+  </si>
+  <si>
+    <t>tidak ada</t>
+  </si>
+  <si>
+    <t>tetap aktif</t>
+  </si>
+  <si>
+    <t>masih mengajar</t>
+  </si>
+  <si>
+    <t>UNAIR</t>
+  </si>
+  <si>
+    <t>Universitas Airlangga</t>
+  </si>
+  <si>
+    <t>Universitas di Surabaya</t>
+  </si>
+  <si>
+    <t>Kecerdasan Buatan</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Artificial Intellegence</t>
+  </si>
+  <si>
+    <t>dll</t>
+  </si>
+  <si>
+    <t>dan lain-lain</t>
+  </si>
+  <si>
+    <t>sistem temu kembali informasi</t>
+  </si>
+  <si>
+    <t>stki</t>
+  </si>
+  <si>
+    <t>information retrival</t>
+  </si>
+  <si>
+    <t>medis</t>
   </si>
 </sst>
 </file>
@@ -977,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1000,11 +689,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1016,6 +716,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1113,7 +816,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,7 +993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1298,48 +1001,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1357,47 +1049,25 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1412,81 +1082,46 @@
     </row>
     <row r="3" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1514,34 +1149,34 @@
     </row>
     <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1561,16 +1196,16 @@
     </row>
     <row r="6" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1596,13 +1231,13 @@
     </row>
     <row r="7" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1629,12 +1264,14 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1658,89 +1295,46 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1768,16 +1362,16 @@
     </row>
     <row r="11" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1803,10 +1397,10 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1834,10 +1428,10 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1865,10 +1459,10 @@
     </row>
     <row r="14" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1896,10 +1490,10 @@
     </row>
     <row r="15" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1927,13 +1521,13 @@
     </row>
     <row r="16" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1960,23 +1554,15 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1999,59 +1585,29 @@
     </row>
     <row r="18" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2060,46 +1616,22 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2115,20 +1647,16 @@
     </row>
     <row r="20" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2152,10 +1680,10 @@
     </row>
     <row r="21" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2183,16 +1711,16 @@
     </row>
     <row r="22" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2218,14 +1746,12 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2249,58 +1775,32 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2312,109 +1812,48 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2434,65 +1873,36 @@
     </row>
     <row r="27" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -2501,10 +1911,10 @@
     </row>
     <row r="28" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2532,26 +1942,18 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>236</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2573,32 +1975,30 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2618,15 +2018,17 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2649,102 +2051,54 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2765,85 +2119,49 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2868,7 +2186,9 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2894,12 +2214,22 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+    <row r="37" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2922,8 +2252,12 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2948,10 +2282,16 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2976,8 +2316,12 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3002,9 +2346,13 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3029,10 +2377,16 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3057,9 +2411,15 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3083,13 +2443,25 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+    <row r="44" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3111,13 +2483,27 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3137,10 +2523,16 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+    <row r="46" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3165,11 +2557,21 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3192,9 +2594,15 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3218,10 +2626,16 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+    <row r="49" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3245,10 +2659,16 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+    <row r="50" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3273,8 +2693,12 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3300,9 +2724,15 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3326,11 +2756,19 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+    <row r="53" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3353,9 +2791,13 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="54" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3380,10 +2822,16 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+    <row r="55" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3407,12 +2855,22 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+    <row r="56" spans="1:25" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3435,9 +2893,15 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3461,10 +2925,16 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+    <row r="58" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3488,11 +2958,19 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+    <row r="59" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3515,11 +2993,19 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+    <row r="60" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3542,9 +3028,13 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+    <row r="61" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3569,10 +3059,16 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3596,10 +3092,16 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+    <row r="63" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3623,9 +3125,13 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+    <row r="64" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3650,10 +3156,16 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+    <row r="65" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3758,33 +3270,6 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/synonim.xlsx
+++ b/synonim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="201">
   <si>
     <t>dosen</t>
   </si>
@@ -27,15 +27,9 @@
     <t>Guru besar</t>
   </si>
   <si>
-    <t>Guru</t>
-  </si>
-  <si>
     <t>Pembimbing</t>
   </si>
   <si>
-    <t>Pendidik</t>
-  </si>
-  <si>
     <t>Pengajar</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>Mengarahkan</t>
   </si>
   <si>
-    <t>menguliahi</t>
-  </si>
-  <si>
     <t>institut</t>
   </si>
   <si>
@@ -93,18 +84,6 @@
     <t>metode</t>
   </si>
   <si>
-    <t>modus operandi</t>
-  </si>
-  <si>
-    <t>proses</t>
-  </si>
-  <si>
-    <t>siasat</t>
-  </si>
-  <si>
-    <t>sistem</t>
-  </si>
-  <si>
     <t>doktor</t>
   </si>
   <si>
@@ -156,12 +135,6 @@
     <t>tengah</t>
   </si>
   <si>
-    <t>rektor</t>
-  </si>
-  <si>
-    <t>lektor</t>
-  </si>
-  <si>
     <t>rekayasa</t>
   </si>
   <si>
@@ -504,9 +477,6 @@
     <t>tc</t>
   </si>
   <si>
-    <t>teknik informatika</t>
-  </si>
-  <si>
     <t>ITB</t>
   </si>
   <si>
@@ -619,6 +589,39 @@
   </si>
   <si>
     <t>medis</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>Universitas Brawijaya</t>
+  </si>
+  <si>
+    <t>UNBRAW</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>SLTP</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>SLTA</t>
+  </si>
+  <si>
+    <t>IPB</t>
+  </si>
+  <si>
+    <t>Institut Pertanian Bogor</t>
+  </si>
+  <si>
+    <t>teknik informatika its</t>
   </si>
 </sst>
 </file>
@@ -704,13 +707,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -993,7 +993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1001,32 +1001,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1"/>
       <c r="I1" s="1"/>
@@ -1049,16 +1049,16 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1080,25 +1080,23 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="K3" s="1"/>
@@ -1118,10 +1116,10 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1147,37 +1145,29 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1194,20 +1184,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1231,13 +1223,13 @@
     </row>
     <row r="7" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1264,13 +1256,13 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1297,16 +1289,16 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1331,10 +1323,10 @@
     </row>
     <row r="10" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1360,18 +1352,18 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1397,10 +1389,10 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1426,12 +1418,12 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1459,12 +1451,14 @@
     </row>
     <row r="14" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1488,12 +1482,12 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1519,15 +1513,15 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1554,11 +1548,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1585,13 +1577,13 @@
     </row>
     <row r="18" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1616,11 +1608,13 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1647,15 +1641,17 @@
     </row>
     <row r="20" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1678,12 +1674,12 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1709,18 +1705,18 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1746,12 +1742,11 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1777,17 +1772,13 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1810,17 +1801,25 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1840,12 +1839,12 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1871,25 +1870,20 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1909,19 +1903,31 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1942,17 +1948,19 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1975,29 +1983,23 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2009,7 +2011,6 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -2018,19 +2019,16 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2059,14 +2057,10 @@
         <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2081,6 +2075,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -2089,16 +2084,17 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2121,14 +2117,10 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2154,16 +2146,20 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2187,9 +2183,11 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2216,20 +2214,16 @@
     </row>
     <row r="37" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2253,10 +2247,10 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2284,14 +2278,12 @@
     </row>
     <row r="39" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2317,12 +2309,14 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2346,14 +2340,16 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2377,19 +2373,25 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2412,18 +2414,26 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2443,25 +2453,19 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2484,26 +2488,22 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2523,15 +2523,15 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2558,20 +2558,16 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2595,13 +2591,13 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2626,16 +2622,14 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2659,15 +2653,15 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2694,13 +2688,17 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2723,16 +2721,14 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2756,19 +2752,17 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2793,14 +2787,20 @@
     </row>
     <row r="54" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2822,15 +2822,15 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2855,7 +2855,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -2865,12 +2865,8 @@
       <c r="C56" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2892,17 +2888,19 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2925,17 +2923,19 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2958,19 +2958,15 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2995,17 +2991,15 @@
     </row>
     <row r="60" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3030,12 +3024,14 @@
     </row>
     <row r="61" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3059,16 +3055,14 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3093,14 +3087,14 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>191</v>
+      <c r="A63" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3127,12 +3121,14 @@
     </row>
     <row r="64" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3156,16 +3152,14 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>197</v>
+    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3190,8 +3184,12 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3216,59 +3214,13 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
+    <row r="67" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
